--- a/data/trans_orig/P34B03-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34B03-Provincia-trans_orig.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Número medio de días a la semana que la población realiza una actividad física moderada como montar en bicicleta, gimnasia, aeróbic,correr, natación</t>
+          <t>Número medio de días a la semana que la población realiza una actividad física moderada, como montar en bicicleta, gimnasia, aeróbic,correr, natación</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
